--- a/Jonathans Hjælpefiler/TIMES-DE_UdenRES/SuppXLS/Trades/ScenTrade_TRADE_DE_ELC.xlsx
+++ b/Jonathans Hjælpefiler/TIMES-DE_UdenRES/SuppXLS/Trades/ScenTrade_TRADE_DE_ELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{D632E7BF-4191-D540-9A08-6D04A5FA91FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17659222-BD61-4108-B279-C9030E448BC3}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{D632E7BF-4191-D540-9A08-6D04A5FA91FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37BC3F4-465D-433B-988F-CFB8A857A771}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
   <si>
     <t>Year</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Cost allocation</t>
-  </si>
-  <si>
-    <t>FX</t>
   </si>
   <si>
     <t>Additional MW</t>
@@ -1577,8 +1574,8 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1627,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="I4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>1</v>
@@ -1662,7 +1659,7 @@
         <v>0.97</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1715,7 +1712,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>10</v>
@@ -1835,10 +1832,10 @@
         <v>TB_ELCC_DE2_DE3_01</v>
       </c>
       <c r="L13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
         <v>46</v>
-      </c>
-      <c r="N13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1855,7 +1852,7 @@
         <v>0.97</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1905,7 +1902,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C18" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>10</v>
@@ -2010,7 +2007,7 @@
         <v>TB_ELCC_DE2_DE5_01</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -2027,7 +2024,7 @@
         <v>0.97</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
@@ -2078,7 +2075,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C27" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>10</v>
@@ -2188,7 +2185,7 @@
         <v>TB_ELCC_DE3_DE4_01</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
@@ -2205,7 +2202,7 @@
         <v>0.97</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
@@ -2255,7 +2252,7 @@
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C36" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>10</v>
@@ -2360,7 +2357,7 @@
         <v>TB_ELCC_DE3_DE5_01</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
@@ -2377,7 +2374,7 @@
         <v>0.97</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
@@ -2427,7 +2424,7 @@
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C45" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>10</v>
@@ -2530,7 +2527,7 @@
         <v>TB_ELCC_DE4_DE5_01</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.35">
@@ -2547,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.35">
@@ -2664,7 +2661,7 @@
         <v>TB_ELCC_DE1_DE2_01</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.35">
@@ -2681,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.35">
@@ -2798,7 +2795,7 @@
         <v>TB_ELCC_DE1_DE3_01</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.35">
@@ -2815,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.35">
@@ -2928,7 +2925,7 @@
         <v>TB_ELCC_DE1_DE4_01</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.35">
@@ -2945,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.35">
@@ -3054,7 +3051,7 @@
         <v>TB_ELCC_DE1_DE5_01</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3092,7 @@
         <v>23</v>
       </c>
       <c r="Y2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.35">
@@ -3111,7 +3108,7 @@
         <v>18</v>
       </c>
       <c r="Y4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s">
         <v>19</v>
@@ -3575,21 +3572,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -3812,24 +3794,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B270BEA8-3E7E-48B6-A709-99E80E2955ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCFB0AB-85DB-4F0E-94C0-B4D60677B4B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E92680-A115-41CF-8E05-8F9967A15F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3846,4 +3826,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCFB0AB-85DB-4F0E-94C0-B4D60677B4B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B270BEA8-3E7E-48B6-A709-99E80E2955ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>